--- a/documentacao/maxxcard/maxxcard_esforco.xlsx
+++ b/documentacao/maxxcard/maxxcard_esforco.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t xml:space="preserve">Projeto</t>
   </si>
@@ -100,21 +100,48 @@
     <t xml:space="preserve">Incluir parâmetro para Limite Mensal</t>
   </si>
   <si>
-    <t xml:space="preserve">2.Faturamento CAP Estabelecimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.Cadastro de Estabelecimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP por fechamento</t>
+    <t xml:space="preserve">1.6. Homologação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.CAP Estabelecimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.Cadastro da Administradora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir ciclos de fechamento gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir interface de configuração de ciclos de fechamento gerais (padrão)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.Cadastro de Estabelecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir ciclos de fechamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir interface de configuração de ciclos de fechamento específicos por estabelecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3. Faturamento</t>
   </si>
   <si>
     <t xml:space="preserve">Faturamento de Contas</t>
   </si>
   <si>
+    <t xml:space="preserve">Faturamento das Contas Estab por ciclo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Geração arquivo pagamento BRADESCO</t>
   </si>
   <si>
+    <t xml:space="preserve">Geração dos arquivos de pagamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4. Homologação</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.Faturamento CAR Conveniados (modelo crédito)</t>
   </si>
   <si>
@@ -136,7 +163,7 @@
     <t xml:space="preserve">Definir prazo para pagamento fatura</t>
   </si>
   <si>
-    <t xml:space="preserve">Incluir parâmetro para definição </t>
+    <t xml:space="preserve">Incluir parâmetro para definição da data de vencimento da fatura</t>
   </si>
   <si>
     <t xml:space="preserve">Definir juros pró-rata por atraso</t>
@@ -169,21 +196,39 @@
     <t xml:space="preserve">CAR por fechamento</t>
   </si>
   <si>
+    <t xml:space="preserve">Agendamento de lançamentos financeiros do CAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.3. Faturamento </t>
   </si>
   <si>
     <t xml:space="preserve">Faturamento Contas </t>
   </si>
   <si>
+    <t xml:space="preserve">Faturamento de Contas em situação normal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Faturamento Contas em Atraso</t>
   </si>
   <si>
+    <t xml:space="preserve">Faturamento de Contas em situação de atraso</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerar boletos ITAÚ</t>
   </si>
   <si>
+    <t xml:space="preserve">Geração de Boletos </t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerar arquivo Registro Cobrança ITAÚ</t>
   </si>
   <si>
+    <t xml:space="preserve">Geração do Arquivo cobrança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processamento Arquivo Retorno Cobrança</t>
+  </si>
+  <si>
     <t xml:space="preserve">4. Liquidação de Faturas</t>
   </si>
   <si>
@@ -199,7 +244,7 @@
     <t xml:space="preserve">Processar atualização de contas</t>
   </si>
   <si>
-    <t xml:space="preserve">Processamento de atualização os saldos de portadores após o faturamento para eventuais </t>
+    <t xml:space="preserve">Processamento de atualização os saldos de portadores após o faturamento</t>
   </si>
   <si>
     <t xml:space="preserve">6.Controle de Adimplência/Inadimplência</t>
@@ -208,6 +253,9 @@
     <t xml:space="preserve">Processar bloqueio/desbloqueio de contas</t>
   </si>
   <si>
+    <t xml:space="preserve">Homologação</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.Produtos/Serviços</t>
   </si>
   <si>
@@ -221,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">Refactoring Transação de Combustível</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptação das regras para contemplar cartão associado a veiculo</t>
   </si>
   <si>
     <t xml:space="preserve">Refactoring Transação de Serviços</t>
@@ -376,18 +427,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.86734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.86734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,367 +470,356 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>40</v>
+      <c r="A30" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="B41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B45" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B46" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>54</v>
+      <c r="B47" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B50" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+      <c r="C53" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="0" t="n">
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+      <c r="C56" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,45 +827,174 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>21</v>
+      <c r="A60" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>21</v>
+      <c r="A62" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>21</v>
-      </c>
+      <c r="A63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="7" t="n">
-        <f aca="false">SUM(B6:B63)</f>
-        <v>612</v>
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="7" t="n">
+        <f aca="false">SUM(B7:B81)</f>
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/documentacao/maxxcard/maxxcard_esforco.xlsx
+++ b/documentacao/maxxcard/maxxcard_esforco.xlsx
@@ -5,282 +5,313 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
-  <si>
-    <t xml:space="preserve">Projeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxxcard Frota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esforço</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Refactoring Modelo Cartão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1. Classes de domínio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactoring das classes de domínio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2. Cadastro Programa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Víncular cartão funcionário/veículo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir um parâmetro para determinar se o cartão vincula-se ao funcionário ou veículo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.Cadastro Funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerar Cartão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverá verificar no momento do cadastro do funcionário se o programa associado vincula o cartão ao funcionário.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.Embossing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerar Arquivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar a geração do arquivo embossing para diferenciar vinculação com veículo e com funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.Cadastro de Veículos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geração de Cartão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se programa com vínculo Cartão/Veículo, gerar cartão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir Limite de Crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir parâmetro para Limite Crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir Limite Diário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir parâmetro para Limite Diário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir Limite Mensal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir parâmetro para Limite Mensal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6. Homologação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.CAP Estabelecimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.Cadastro da Administradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir ciclos de fechamento gerais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir interface de configuração de ciclos de fechamento gerais (padrão)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.Cadastro de Estabelecimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir ciclos de fechamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir interface de configuração de ciclos de fechamento específicos por estabelecimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3. Faturamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faturamento de Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faturamento das Contas Estab por ciclo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geração arquivo pagamento BRADESCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geração dos arquivos de pagamento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4. Homologação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.Faturamento CAR Conveniados (modelo crédito)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1. Cadastro de Programa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir modelo de cobrança (pré ou pós pago)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir parâmetro para determinar se cobrança será pré-pago (pedido) ou pós-pago (faturamento)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir dias de fechamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir parâmetro para determinar os diversos dias de fechamento (faturamento) no mês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir prazo para pagamento fatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir parâmetro para definição da data de vencimento da fatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir juros pró-rata por atraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir parâmetro para definição da taxa de juros pró-rata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir multa por atraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir renovação do limite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir Taxa de Administração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir Taxa de Manutenção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir Taxa de Utilização</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir tolerância atraso fatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2. Agendamento Lançamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR por fechamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agendamento de lançamentos financeiros do CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3. Faturamento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faturamento Contas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faturamento de Contas em situação normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faturamento Contas em Atraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faturamento de Contas em situação de atraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerar boletos ITAÚ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geração de Boletos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerar arquivo Registro Cobrança ITAÚ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geração do Arquivo cobrança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processamento Arquivo Retorno Cobrança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Liquidação de Faturas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processar arquivo CNAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processamento de geração de lançamentos de pagamentos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Atualização de Saldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processar atualização de contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processamento de atualização os saldos de portadores após o faturamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.Controle de Adimplência/Inadimplência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processar bloqueio/desbloqueio de contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homologação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.Produtos/Serviços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir produtos/serviços permitidos por Programa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir produtos/serviços permitidos por Veículo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Regras de Autorização</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactoring Transação de Combustível</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptação das regras para contemplar cartão associado a veiculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactoring Transação de Serviços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactoring Transação de Equipamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total de Pontos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Maxxcard Frota</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Esforço</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>1.Refactoring Modelo Cartão</t>
+  </si>
+  <si>
+    <t>1.1. Classes de domínio</t>
+  </si>
+  <si>
+    <t>Refactoring das classes de domínio</t>
+  </si>
+  <si>
+    <t>1.2. Cadastro Programa </t>
+  </si>
+  <si>
+    <t>Víncular cartão funcionário/veículo</t>
+  </si>
+  <si>
+    <t>Incluir um parâmetro para determinar se o cartão vincula-se ao funcionário ou veículo</t>
+  </si>
+  <si>
+    <t>1.3.Cadastro Funcionário</t>
+  </si>
+  <si>
+    <t>Gerar Cartão</t>
+  </si>
+  <si>
+    <t>O sistema deverá verificar no momento do cadastro do funcionário se o programa associado vincula o cartão ao funcionário.</t>
+  </si>
+  <si>
+    <t>1.4.Embossing</t>
+  </si>
+  <si>
+    <t>Gerar Arquivo</t>
+  </si>
+  <si>
+    <t>Preparar a geração do arquivo embossing para diferenciar vinculação com veículo e com funcionário</t>
+  </si>
+  <si>
+    <t>1.5.Cadastro de Veículos</t>
+  </si>
+  <si>
+    <t>Geração de Cartão</t>
+  </si>
+  <si>
+    <t>Se programa com vínculo Cartão/Veículo, gerar cartão</t>
+  </si>
+  <si>
+    <t>Definir Limite de Crédito</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para Limite Crédito</t>
+  </si>
+  <si>
+    <t>Definir Limite Diário</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para Limite Diário</t>
+  </si>
+  <si>
+    <t>Definir Limite Mensal</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para Limite Mensal</t>
+  </si>
+  <si>
+    <t>1.6. Homologação</t>
+  </si>
+  <si>
+    <t>Testes de homologação</t>
+  </si>
+  <si>
+    <t>2.CAP Estabelecimentos</t>
+  </si>
+  <si>
+    <t>2.1.Cadastro da Administradora</t>
+  </si>
+  <si>
+    <t>Definir ciclos de fechamento gerais</t>
+  </si>
+  <si>
+    <t>Incluir interface de configuração de ciclos de fechamento gerais (padrão)</t>
+  </si>
+  <si>
+    <t>2.2.Cadastro de Estabelecimento</t>
+  </si>
+  <si>
+    <t>Definir ciclos de fechamentos</t>
+  </si>
+  <si>
+    <t>Incluir interface de configuração de ciclos de fechamento específicos por estabelecimento</t>
+  </si>
+  <si>
+    <t>2.3. Faturamento</t>
+  </si>
+  <si>
+    <t>Faturamento de Contas</t>
+  </si>
+  <si>
+    <t>Faturamento das Contas Estab por ciclo</t>
+  </si>
+  <si>
+    <t>Geração arquivo pagamento BRADESCO</t>
+  </si>
+  <si>
+    <t>Geração dos arquivos de pagamento </t>
+  </si>
+  <si>
+    <t>2.4. Homologação</t>
+  </si>
+  <si>
+    <t>3.Faturamento CAR Conveniados (modelo crédito)</t>
+  </si>
+  <si>
+    <t>3.1. Cadastro de Programa</t>
+  </si>
+  <si>
+    <t>Definir modelo de cobrança (pré ou pós pago)</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para determinar se cobrança será pré-pago (pedido) ou pós-pago (faturamento)</t>
+  </si>
+  <si>
+    <t>Definir dias de fechamento</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para determinar os diversos dias de fechamento (faturamento) no mês</t>
+  </si>
+  <si>
+    <t>Definir prazo para pagamento fatura</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definição da data de vencimento da fatura</t>
+  </si>
+  <si>
+    <t>Definir juros pró-rata por atraso</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definição da taxa de juros pró-rata</t>
+  </si>
+  <si>
+    <t>Definir multa por atraso</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definição multa por atraso</t>
+  </si>
+  <si>
+    <t>Definir renovação do limite </t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definir se renovação de limite é automática ou não </t>
+  </si>
+  <si>
+    <t>Definir Taxa de Administração</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definição de taxa de administração</t>
+  </si>
+  <si>
+    <t>Definir Taxa de Manutenção</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definição da taxa de manutenção (cobrado por cartão ativo)</t>
+  </si>
+  <si>
+    <t>Definir Taxa de Utilização</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definição da taxa de utilização (cobrado por cartão utilizado)</t>
+  </si>
+  <si>
+    <t>Definir tolerância atraso fatura</t>
+  </si>
+  <si>
+    <t>Incluir parâmetro para definição dos dias máximo para atraso</t>
+  </si>
+  <si>
+    <t>3.2. Agendamento Lançamentos</t>
+  </si>
+  <si>
+    <t>CAR por fechamento</t>
+  </si>
+  <si>
+    <t>Agendamento de lançamentos financeiros do CAR</t>
+  </si>
+  <si>
+    <t>3.3. Faturamento </t>
+  </si>
+  <si>
+    <t>Faturamento Contas </t>
+  </si>
+  <si>
+    <t>Faturamento de Contas em situação normal</t>
+  </si>
+  <si>
+    <t>Faturamento Contas em Atraso</t>
+  </si>
+  <si>
+    <t>Faturamento de Contas em situação de atraso</t>
+  </si>
+  <si>
+    <t>Gerar boletos ITAÚ</t>
+  </si>
+  <si>
+    <t>Geração de Boletos </t>
+  </si>
+  <si>
+    <t>Gerar arquivo Registro Cobrança ITAÚ</t>
+  </si>
+  <si>
+    <t>Geração do Arquivo cobrança</t>
+  </si>
+  <si>
+    <t>Processamento Arquivo Retorno Cobrança</t>
+  </si>
+  <si>
+    <t>Processamento do arquivo retorno cobrança</t>
+  </si>
+  <si>
+    <t>3.4. Liquidação de Faturas</t>
+  </si>
+  <si>
+    <t>Processar arquivo CNAB</t>
+  </si>
+  <si>
+    <t>Processamento de geração de lançamentos de pagamentos </t>
+  </si>
+  <si>
+    <t>Processar atualização de contas</t>
+  </si>
+  <si>
+    <t>Processamento de atualização os saldos de portadores após o faturamento</t>
+  </si>
+  <si>
+    <t>Processar bloqueio de contas</t>
+  </si>
+  <si>
+    <t>Processamento para bloqueio por inadimplência</t>
+  </si>
+  <si>
+    <t>Processar desbloqueio de contas</t>
+  </si>
+  <si>
+    <t>Processamento de desbloqueio de contas por pagamento</t>
+  </si>
+  <si>
+    <t>3.5. Homologação</t>
+  </si>
+  <si>
+    <t>4.Produtos/Serviços</t>
+  </si>
+  <si>
+    <t>Definir produtos/serviços permitidos por Programa</t>
+  </si>
+  <si>
+    <t>Incluir interface para seleção de produtos/serviços no Programa</t>
+  </si>
+  <si>
+    <t>Definir produtos/serviços permitidos por Veículo</t>
+  </si>
+  <si>
+    <t>Incluir interface para seleção de produtos/serviços no Veículo</t>
+  </si>
+  <si>
+    <t>Homologação</t>
+  </si>
+  <si>
+    <t>5. Regras de Autorização</t>
+  </si>
+  <si>
+    <t>Refactoring Transação de Combustível</t>
+  </si>
+  <si>
+    <t>Adaptação das regras para contemplar cartão associado a veiculo</t>
+  </si>
+  <si>
+    <t>Refactoring Transação de Serviços</t>
+  </si>
+  <si>
+    <t>Refactoring Transação de Equipamentos</t>
+  </si>
+  <si>
+    <t>Total de Pontos</t>
   </si>
 </sst>
 </file>
@@ -288,7 +319,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -429,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -590,90 +621,94 @@
       <c r="B24" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="n">
+    </row>
+    <row r="29" s="3" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="30" s="3" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="0" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
+      <c r="C32" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="B36" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="0" t="n">
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
+      <c r="C38" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,71 +717,66 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,231 +786,285 @@
       <c r="B48" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="C48" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="C50" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>56</v>
+      <c r="A52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="0" t="n">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>59</v>
+      <c r="C55" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>61</v>
-      </c>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>63</v>
+      <c r="A57" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>64</v>
+      <c r="A58" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>34</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B60" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="0" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="5" t="n">
+      <c r="C62" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="C65" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>72</v>
+      <c r="A66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
+      <c r="A68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
-        <v>76</v>
+      <c r="A70" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>78</v>
+      <c r="A73" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>21</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="C81" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -990,11 +1074,11 @@
     </row>
     <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B85" s="7" t="n">
         <f aca="false">SUM(B7:B81)</f>
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
